--- a/BackTest/2020-01-12 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-12 BackTest ETZ.xlsx
@@ -451,17 +451,13 @@
         <v>11.16433333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.27</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>11.16566666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>11.16683333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>11.16649999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.27</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>11.166</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>11.1655</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>11.16466666666666</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.05</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>11.16399999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>11.16333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>11.16099999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.95</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>11.16216666666666</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K12" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>11.15949999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,22 +871,14 @@
         <v>11.15516666666666</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -994,22 +906,14 @@
         <v>11.15166666666666</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1037,22 +941,14 @@
         <v>11.15216666666666</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1080,22 +976,14 @@
         <v>11.14833333333332</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1123,22 +1011,14 @@
         <v>11.14249999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="K18" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,22 +1046,14 @@
         <v>11.13649999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K19" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1209,22 +1081,14 @@
         <v>11.13399999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="K20" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1252,22 +1116,14 @@
         <v>11.12833333333332</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1295,22 +1151,14 @@
         <v>11.12183333333332</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="K22" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1186,14 @@
         <v>11.11433333333332</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1381,22 +1221,14 @@
         <v>11.10633333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1424,22 +1256,14 @@
         <v>11.09983333333333</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1467,22 +1291,14 @@
         <v>11.09166666666666</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1510,22 +1326,14 @@
         <v>11.08349999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1361,14 @@
         <v>11.08316666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="K28" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1596,22 +1396,14 @@
         <v>11.07883333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="K29" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1639,22 +1431,14 @@
         <v>11.07599999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1682,22 +1466,14 @@
         <v>11.07333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="K31" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1725,22 +1501,14 @@
         <v>11.07066666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1768,22 +1536,14 @@
         <v>11.07216666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K33" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1811,22 +1571,14 @@
         <v>11.06966666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K34" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1854,22 +1606,14 @@
         <v>11.0705</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="K35" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1897,22 +1641,14 @@
         <v>11.06966666666666</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="K36" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1940,22 +1676,14 @@
         <v>11.0615</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="K37" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1983,22 +1711,14 @@
         <v>11.056</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +1746,14 @@
         <v>11.04883333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="K39" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2069,22 +1781,14 @@
         <v>11.0505</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>11</v>
-      </c>
-      <c r="K40" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +1816,14 @@
         <v>11.04933333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11</v>
-      </c>
-      <c r="K41" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2155,22 +1851,14 @@
         <v>11.04766666666666</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2198,22 +1886,14 @@
         <v>11.046</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K43" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2241,22 +1921,14 @@
         <v>11.04433333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K44" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +1956,14 @@
         <v>11.04266666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2327,22 +1991,14 @@
         <v>11.04033333333334</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K46" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2370,22 +2026,14 @@
         <v>11.03983333333334</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="K47" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2413,22 +2061,14 @@
         <v>11.04066666666667</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="K48" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2456,22 +2096,14 @@
         <v>11.03983333333334</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K49" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2499,22 +2131,14 @@
         <v>11.03933333333334</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="K50" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2542,22 +2166,14 @@
         <v>11.03983333333334</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="K51" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2585,22 +2201,14 @@
         <v>11.04900000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="K52" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2628,22 +2236,14 @@
         <v>11.05216666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="K53" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2671,22 +2271,14 @@
         <v>11.05600000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="K54" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2720,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2761,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2802,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2843,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2884,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2925,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3007,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3048,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3089,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3171,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3212,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3253,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3294,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3335,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3376,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3417,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3458,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3499,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3581,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3622,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3660,17 +3114,11 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3701,17 +3149,11 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3745,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3783,17 +3219,11 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3827,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3868,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3909,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3991,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4073,16 +3467,10 @@
         <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>1.498196347031964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4146,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -6278,14 +5666,20 @@
         <v>14.7775</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6313,14 +5707,20 @@
         <v>14.75983333333333</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>13.89</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6348,14 +5748,20 @@
         <v>14.74816666666666</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>13.5</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +5789,20 @@
         <v>14.73466666666666</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>13.41</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6418,14 +5830,20 @@
         <v>14.71733333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>14</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6453,14 +5871,20 @@
         <v>14.69616666666666</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6488,14 +5912,20 @@
         <v>14.67866666666666</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>13.91</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6523,14 +5953,20 @@
         <v>14.6585</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>13.76</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6558,14 +5994,20 @@
         <v>14.6465</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.2</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +6042,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +6081,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6663,14 +6113,20 @@
         <v>14.59633333333333</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.05</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6698,14 +6154,20 @@
         <v>14.58383333333333</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6740,7 +6202,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6768,14 +6234,20 @@
         <v>14.56833333333333</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6803,14 +6275,20 @@
         <v>14.54866666666667</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>14.25</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6845,7 +6323,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6880,7 +6362,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6915,7 +6401,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6950,7 +6440,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6985,7 +6479,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7020,7 +6518,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +6557,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7090,7 +6596,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7125,7 +6635,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7160,7 +6674,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7195,7 +6713,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7230,7 +6752,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7265,7 +6791,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7300,7 +6830,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7335,7 +6869,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7370,7 +6908,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7405,7 +6947,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7440,7 +6986,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7475,7 +7025,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7510,7 +7064,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7103,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7580,7 +7142,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7615,7 +7181,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7650,7 +7220,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7685,7 +7259,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7720,7 +7298,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +7337,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7790,7 +7376,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7825,7 +7415,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7860,7 +7454,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7895,7 +7493,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7930,7 +7532,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7965,7 +7571,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8000,7 +7610,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8035,7 +7649,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8070,7 +7688,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8105,7 +7727,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8140,7 +7766,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8175,7 +7805,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8210,7 +7844,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8245,7 +7883,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8280,7 +7922,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8315,7 +7961,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8350,7 +8000,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8385,7 +8039,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8420,7 +8078,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8455,7 +8117,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8490,7 +8156,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8525,7 +8195,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8560,7 +8234,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8595,7 +8273,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8630,7 +8312,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8665,7 +8351,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +8390,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8735,7 +8429,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8770,7 +8468,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8805,7 +8507,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8840,7 +8546,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8875,7 +8585,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8910,7 +8624,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8945,7 +8663,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8980,7 +8702,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9015,7 +8741,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9050,7 +8780,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9085,7 +8819,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9120,7 +8858,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9155,7 +8897,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9190,7 +8936,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9225,7 +8975,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9260,7 +9014,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9295,7 +9053,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +9092,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9131,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9400,7 +9170,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9435,7 +9209,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9470,7 +9248,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9505,7 +9287,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9540,7 +9326,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9575,7 +9365,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9610,7 +9404,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9645,7 +9443,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9680,7 +9482,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9715,7 +9521,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9750,7 +9560,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9785,7 +9599,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9820,7 +9638,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +9677,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9890,7 +9716,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9925,7 +9755,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9960,7 +9794,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9995,7 +9833,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10030,7 +9872,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10065,7 +9911,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +9950,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10135,7 +9989,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10170,7 +10028,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10205,7 +10067,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10240,7 +10106,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10275,7 +10145,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10310,7 +10184,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10345,7 +10223,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10380,7 +10262,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10415,7 +10301,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10450,7 +10340,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10485,7 +10379,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10520,7 +10418,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10555,7 +10457,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10590,7 +10496,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10625,7 +10535,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10660,7 +10574,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10695,7 +10613,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10730,7 +10652,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10765,7 +10691,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10800,7 +10730,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10835,7 +10769,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10870,7 +10808,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10905,7 +10847,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10940,7 +10886,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10975,7 +10925,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +10964,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11045,7 +11003,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11080,7 +11042,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11115,7 +11081,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11150,7 +11120,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11185,7 +11159,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11220,7 +11198,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11237,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11290,7 +11276,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11325,7 +11315,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11360,7 +11354,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11395,7 +11393,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11430,7 +11432,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11465,7 +11471,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11500,7 +11510,11 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11535,7 +11549,11 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11570,7 +11588,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11605,7 +11627,11 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +11666,11 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11675,7 +11705,11 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11710,7 +11744,11 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11745,7 +11783,11 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11780,7 +11822,11 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11815,7 +11861,11 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11850,7 +11900,11 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11885,7 +11939,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11920,7 +11978,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11955,7 +12017,11 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11990,7 +12056,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12025,7 +12095,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12060,7 +12134,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12095,7 +12173,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12130,7 +12212,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12165,7 +12251,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12200,7 +12290,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12235,7 +12329,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12270,7 +12368,11 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12305,7 +12407,11 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12340,7 +12446,11 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12375,7 +12485,11 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +12524,11 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12445,7 +12563,11 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12480,7 +12602,11 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12515,7 +12641,11 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12550,7 +12680,11 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12585,7 +12719,11 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12620,7 +12758,11 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12655,7 +12797,11 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12690,7 +12836,11 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12725,7 +12875,11 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12760,7 +12914,11 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12795,7 +12953,11 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12992,11 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12865,7 +13031,11 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12900,7 +13070,11 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12935,7 +13109,11 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12970,7 +13148,11 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13005,7 +13187,11 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13040,7 +13226,11 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13075,7 +13265,11 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13110,7 +13304,11 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13145,7 +13343,11 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13180,7 +13382,11 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13215,7 +13421,11 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13250,7 +13460,11 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13285,7 +13499,11 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13320,7 +13538,11 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13355,7 +13577,11 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13390,7 +13616,11 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13425,7 +13655,11 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13460,7 +13694,11 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13495,7 +13733,11 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13530,7 +13772,11 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13565,7 +13811,11 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13600,7 +13850,11 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13635,7 +13889,11 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13670,7 +13928,11 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13705,7 +13967,11 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13740,7 +14006,11 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13775,7 +14045,11 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13810,7 +14084,11 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13845,7 +14123,11 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13880,7 +14162,11 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13915,7 +14201,11 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13950,7 +14240,11 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13985,7 +14279,11 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14020,7 +14318,11 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14055,7 +14357,11 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14090,7 +14396,11 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14125,7 +14435,11 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14160,7 +14474,11 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14195,7 +14513,11 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14230,7 +14552,11 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14265,7 +14591,11 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14300,7 +14630,11 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14335,7 +14669,11 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14370,7 +14708,11 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14405,7 +14747,11 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14440,7 +14786,11 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +14825,11 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14510,7 +14864,11 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14545,7 +14903,11 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14580,7 +14942,11 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14615,7 +14981,11 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14650,7 +15020,11 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14685,7 +15059,11 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14720,7 +15098,11 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14755,7 +15137,11 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14790,7 +15176,11 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14825,7 +15215,11 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14860,7 +15254,11 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14895,7 +15293,11 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14930,7 +15332,11 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14965,7 +15371,11 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15000,7 +15410,11 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15035,7 +15449,11 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15070,7 +15488,11 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15105,7 +15527,11 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15140,7 +15566,11 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15175,7 +15605,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15210,7 +15644,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15245,7 +15683,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15280,7 +15722,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15315,7 +15761,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15350,7 +15800,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15385,7 +15839,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15420,7 +15878,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15455,7 +15917,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15490,7 +15956,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15525,7 +15995,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15560,7 +16034,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15595,7 +16073,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +16112,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15665,7 +16151,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15700,7 +16190,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15735,7 +16229,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15770,7 +16268,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15805,7 +16307,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15840,7 +16346,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15875,7 +16385,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15910,7 +16424,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15945,7 +16463,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15980,7 +16502,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16015,7 +16541,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16050,7 +16580,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16085,7 +16619,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16120,7 +16658,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16155,7 +16697,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16190,7 +16736,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16225,7 +16775,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16260,7 +16814,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16295,7 +16853,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16330,7 +16892,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16365,7 +16931,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16400,7 +16970,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16435,7 +17009,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16470,7 +17048,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16505,7 +17087,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16540,7 +17126,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16575,7 +17165,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16610,7 +17204,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16645,7 +17243,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16680,7 +17282,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16715,7 +17321,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16750,7 +17360,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16785,7 +17399,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16820,7 +17438,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16855,7 +17477,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16890,7 +17516,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16925,7 +17555,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16960,7 +17594,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16995,7 +17633,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17030,7 +17672,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17065,7 +17711,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17100,7 +17750,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17135,7 +17789,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17170,7 +17828,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17205,7 +17867,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17240,7 +17906,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17275,7 +17945,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17310,7 +17984,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17345,7 +18023,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17380,7 +18062,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17415,7 +18101,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17450,7 +18140,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17485,7 +18179,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17520,7 +18218,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17555,7 +18257,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17590,7 +18296,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17625,7 +18335,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17660,7 +18374,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17695,7 +18413,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17730,7 +18452,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17765,7 +18491,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17800,7 +18530,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17835,7 +18569,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17870,7 +18608,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17905,7 +18647,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17940,7 +18686,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17975,7 +18725,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18010,7 +18764,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18045,7 +18803,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18080,7 +18842,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18115,7 +18881,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18150,7 +18920,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18185,7 +18959,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18220,7 +18998,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18255,7 +19037,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18290,7 +19076,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18325,7 +19115,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18360,7 +19154,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18395,7 +19193,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18430,7 +19232,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18465,7 +19271,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18500,7 +19310,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18535,7 +19349,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18570,7 +19388,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18605,7 +19427,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18640,7 +19466,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18675,7 +19505,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18710,7 +19544,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18745,7 +19583,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18780,7 +19622,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18815,7 +19661,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18850,7 +19700,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18885,7 +19739,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18920,7 +19778,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18955,7 +19817,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18990,7 +19856,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19025,7 +19895,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19060,7 +19934,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19095,7 +19973,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19130,7 +20012,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19165,7 +20051,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19200,7 +20090,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19235,7 +20129,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19270,7 +20168,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19305,7 +20207,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19340,7 +20246,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19375,7 +20285,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19410,7 +20324,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19445,7 +20363,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19480,7 +20402,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19515,7 +20441,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19550,7 +20480,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19585,7 +20519,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19620,7 +20558,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19655,7 +20597,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19690,7 +20636,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19725,7 +20675,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19760,7 +20714,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19795,7 +20753,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19830,7 +20792,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19865,7 +20831,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19900,7 +20870,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19935,7 +20909,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19970,7 +20948,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20005,7 +20987,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20040,7 +21026,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20075,7 +21065,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20110,7 +21104,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20145,7 +21143,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20180,7 +21182,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20215,7 +21221,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20250,7 +21260,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20285,7 +21299,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20320,7 +21338,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20355,7 +21377,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20390,7 +21416,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20425,7 +21455,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20460,7 +21494,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -20495,7 +21533,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -20530,7 +21572,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -20565,7 +21611,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -20600,7 +21650,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20635,7 +21689,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20670,7 +21728,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20705,7 +21767,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20740,7 +21806,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20775,7 +21845,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20810,7 +21884,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20845,7 +21923,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20880,7 +21962,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +22001,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20950,7 +22040,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20985,7 +22079,11 @@
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
-      <c r="L571" t="inlineStr"/>
+      <c r="L571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M571" t="n">
         <v>1</v>
       </c>
@@ -21020,7 +22118,11 @@
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
-      <c r="L572" t="inlineStr"/>
+      <c r="L572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M572" t="n">
         <v>1</v>
       </c>
@@ -21055,7 +22157,11 @@
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
-      <c r="L573" t="inlineStr"/>
+      <c r="L573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M573" t="n">
         <v>1</v>
       </c>
@@ -21090,7 +22196,11 @@
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
-      <c r="L574" t="inlineStr"/>
+      <c r="L574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M574" t="n">
         <v>1</v>
       </c>
@@ -21125,7 +22235,11 @@
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
-      <c r="L575" t="inlineStr"/>
+      <c r="L575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M575" t="n">
         <v>1</v>
       </c>
@@ -21160,7 +22274,11 @@
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>
-      <c r="L576" t="inlineStr"/>
+      <c r="L576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M576" t="n">
         <v>1</v>
       </c>
@@ -21195,7 +22313,11 @@
       </c>
       <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr"/>
-      <c r="L577" t="inlineStr"/>
+      <c r="L577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M577" t="n">
         <v>1</v>
       </c>
@@ -21230,7 +22352,11 @@
       </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr"/>
-      <c r="L578" t="inlineStr"/>
+      <c r="L578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M578" t="n">
         <v>1</v>
       </c>
@@ -21265,7 +22391,11 @@
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -21300,7 +22430,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -21335,7 +22469,11 @@
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M581" t="n">
         <v>1</v>
       </c>
@@ -21370,7 +22508,11 @@
       </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
-      <c r="L582" t="inlineStr"/>
+      <c r="L582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M582" t="n">
         <v>1</v>
       </c>
@@ -21405,7 +22547,11 @@
       </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
-      <c r="L583" t="inlineStr"/>
+      <c r="L583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M583" t="n">
         <v>1</v>
       </c>
@@ -21440,7 +22586,11 @@
       </c>
       <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
-      <c r="L584" t="inlineStr"/>
+      <c r="L584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M584" t="n">
         <v>1</v>
       </c>
@@ -21475,7 +22625,11 @@
       </c>
       <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
-      <c r="L585" t="inlineStr"/>
+      <c r="L585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M585" t="n">
         <v>1</v>
       </c>
@@ -21510,7 +22664,11 @@
       </c>
       <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
-      <c r="L586" t="inlineStr"/>
+      <c r="L586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M586" t="n">
         <v>1</v>
       </c>
@@ -21545,7 +22703,11 @@
       </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
-      <c r="L587" t="inlineStr"/>
+      <c r="L587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M587" t="n">
         <v>1</v>
       </c>
@@ -21580,7 +22742,11 @@
       </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
-      <c r="L588" t="inlineStr"/>
+      <c r="L588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M588" t="n">
         <v>1</v>
       </c>
@@ -21615,7 +22781,11 @@
       </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
-      <c r="L589" t="inlineStr"/>
+      <c r="L589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M589" t="n">
         <v>1</v>
       </c>
@@ -21650,7 +22820,11 @@
       </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
-      <c r="L590" t="inlineStr"/>
+      <c r="L590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M590" t="n">
         <v>1</v>
       </c>
@@ -21685,7 +22859,11 @@
       </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
-      <c r="L591" t="inlineStr"/>
+      <c r="L591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M591" t="n">
         <v>1</v>
       </c>
@@ -21720,7 +22898,11 @@
       </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -21755,7 +22937,11 @@
       </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -21790,7 +22976,11 @@
       </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -21825,7 +23015,11 @@
       </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -21860,7 +23054,11 @@
       </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -21895,7 +23093,11 @@
       </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -21930,7 +23132,11 @@
       </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -21965,7 +23171,11 @@
       </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22000,7 +23210,11 @@
       </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22035,7 +23249,11 @@
       </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22070,7 +23288,11 @@
       </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22105,7 +23327,11 @@
       </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22140,7 +23366,11 @@
       </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22175,7 +23405,11 @@
       </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22210,7 +23444,11 @@
       </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22245,7 +23483,11 @@
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>
@@ -22280,7 +23522,11 @@
       </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr"/>
-      <c r="L608" t="inlineStr"/>
+      <c r="L608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M608" t="n">
         <v>1</v>
       </c>
@@ -22315,7 +23561,11 @@
       </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr"/>
-      <c r="L609" t="inlineStr"/>
+      <c r="L609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M609" t="n">
         <v>1</v>
       </c>
@@ -22350,7 +23600,11 @@
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
-      <c r="L610" t="inlineStr"/>
+      <c r="L610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M610" t="n">
         <v>1</v>
       </c>
@@ -22385,7 +23639,11 @@
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
-      <c r="L611" t="inlineStr"/>
+      <c r="L611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M611" t="n">
         <v>1</v>
       </c>
@@ -22420,7 +23678,11 @@
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
-      <c r="L612" t="inlineStr"/>
+      <c r="L612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M612" t="n">
         <v>1</v>
       </c>
@@ -22455,7 +23717,11 @@
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
-      <c r="L613" t="inlineStr"/>
+      <c r="L613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M613" t="n">
         <v>1</v>
       </c>
@@ -22490,7 +23756,11 @@
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>
-      <c r="L614" t="inlineStr"/>
+      <c r="L614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M614" t="n">
         <v>1</v>
       </c>
@@ -22525,7 +23795,11 @@
       </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr"/>
-      <c r="L615" t="inlineStr"/>
+      <c r="L615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M615" t="n">
         <v>1</v>
       </c>
@@ -22560,7 +23834,11 @@
       </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr"/>
-      <c r="L616" t="inlineStr"/>
+      <c r="L616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M616" t="n">
         <v>1</v>
       </c>
@@ -22595,7 +23873,11 @@
       </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr"/>
-      <c r="L617" t="inlineStr"/>
+      <c r="L617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M617" t="n">
         <v>1</v>
       </c>
@@ -22630,7 +23912,11 @@
       </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr"/>
-      <c r="L618" t="inlineStr"/>
+      <c r="L618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M618" t="n">
         <v>1</v>
       </c>
@@ -22665,7 +23951,11 @@
       </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr"/>
-      <c r="L619" t="inlineStr"/>
+      <c r="L619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M619" t="n">
         <v>1</v>
       </c>
@@ -22700,7 +23990,11 @@
       </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr"/>
-      <c r="L620" t="inlineStr"/>
+      <c r="L620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M620" t="n">
         <v>1</v>
       </c>
@@ -22735,7 +24029,11 @@
       </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr"/>
-      <c r="L621" t="inlineStr"/>
+      <c r="L621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M621" t="n">
         <v>1</v>
       </c>
@@ -22770,7 +24068,11 @@
       </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr"/>
-      <c r="L622" t="inlineStr"/>
+      <c r="L622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M622" t="n">
         <v>1</v>
       </c>
@@ -22805,7 +24107,11 @@
       </c>
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr"/>
-      <c r="L623" t="inlineStr"/>
+      <c r="L623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M623" t="n">
         <v>1</v>
       </c>
@@ -22840,7 +24146,11 @@
       </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr"/>
-      <c r="L624" t="inlineStr"/>
+      <c r="L624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M624" t="n">
         <v>1</v>
       </c>
@@ -22875,7 +24185,11 @@
       </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr"/>
-      <c r="L625" t="inlineStr"/>
+      <c r="L625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M625" t="n">
         <v>1</v>
       </c>
@@ -22910,7 +24224,11 @@
       </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr"/>
-      <c r="L626" t="inlineStr"/>
+      <c r="L626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M626" t="n">
         <v>1</v>
       </c>
@@ -22945,7 +24263,11 @@
       </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr"/>
-      <c r="L627" t="inlineStr"/>
+      <c r="L627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M627" t="n">
         <v>1</v>
       </c>
@@ -22980,7 +24302,11 @@
       </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr"/>
-      <c r="L628" t="inlineStr"/>
+      <c r="L628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M628" t="n">
         <v>1</v>
       </c>
@@ -23015,7 +24341,11 @@
       </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr"/>
-      <c r="L629" t="inlineStr"/>
+      <c r="L629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M629" t="n">
         <v>1</v>
       </c>
@@ -23050,7 +24380,11 @@
       </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr"/>
-      <c r="L630" t="inlineStr"/>
+      <c r="L630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M630" t="n">
         <v>1</v>
       </c>
@@ -23085,7 +24419,11 @@
       </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr"/>
-      <c r="L631" t="inlineStr"/>
+      <c r="L631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M631" t="n">
         <v>1</v>
       </c>
@@ -23120,7 +24458,11 @@
       </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr"/>
-      <c r="L632" t="inlineStr"/>
+      <c r="L632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M632" t="n">
         <v>1</v>
       </c>
@@ -23155,7 +24497,11 @@
       </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr"/>
-      <c r="L633" t="inlineStr"/>
+      <c r="L633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M633" t="n">
         <v>1</v>
       </c>
@@ -23190,7 +24536,11 @@
       </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr"/>
-      <c r="L634" t="inlineStr"/>
+      <c r="L634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M634" t="n">
         <v>1</v>
       </c>
@@ -23225,7 +24575,11 @@
       </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr"/>
-      <c r="L635" t="inlineStr"/>
+      <c r="L635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M635" t="n">
         <v>1</v>
       </c>
@@ -23260,7 +24614,11 @@
       </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr"/>
-      <c r="L636" t="inlineStr"/>
+      <c r="L636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M636" t="n">
         <v>1</v>
       </c>
@@ -23295,7 +24653,11 @@
       </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr"/>
-      <c r="L637" t="inlineStr"/>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M637" t="n">
         <v>1</v>
       </c>
@@ -23330,7 +24692,11 @@
       </c>
       <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr"/>
-      <c r="L638" t="inlineStr"/>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M638" t="n">
         <v>1</v>
       </c>
@@ -23365,7 +24731,11 @@
       </c>
       <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr"/>
-      <c r="L639" t="inlineStr"/>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M639" t="n">
         <v>1</v>
       </c>
@@ -23400,7 +24770,11 @@
       </c>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr"/>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M640" t="n">
         <v>1</v>
       </c>
@@ -23435,7 +24809,11 @@
       </c>
       <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr"/>
-      <c r="L641" t="inlineStr"/>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M641" t="n">
         <v>1</v>
       </c>
@@ -23470,7 +24848,11 @@
       </c>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr"/>
-      <c r="L642" t="inlineStr"/>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M642" t="n">
         <v>1</v>
       </c>
@@ -23498,14 +24880,20 @@
         <v>13.85799999999999</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>13.46</v>
+      </c>
       <c r="K643" t="inlineStr"/>
-      <c r="L643" t="inlineStr"/>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M643" t="n">
         <v>1</v>
       </c>
@@ -23533,14 +24921,20 @@
         <v>13.85749999999999</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>13.55</v>
+      </c>
       <c r="K644" t="inlineStr"/>
-      <c r="L644" t="inlineStr"/>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M644" t="n">
         <v>1</v>
       </c>
@@ -23575,7 +24969,11 @@
       </c>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr"/>
-      <c r="L645" t="inlineStr"/>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M645" t="n">
         <v>1</v>
       </c>
@@ -23610,7 +25008,11 @@
       </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
-      <c r="L646" t="inlineStr"/>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M646" t="n">
         <v>1</v>
       </c>
@@ -23645,7 +25047,11 @@
       </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr"/>
-      <c r="L647" t="inlineStr"/>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M647" t="n">
         <v>1</v>
       </c>
@@ -23680,7 +25086,11 @@
       </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr"/>
-      <c r="L648" t="inlineStr"/>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M648" t="n">
         <v>1</v>
       </c>
@@ -23715,7 +25125,11 @@
       </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
-      <c r="L649" t="inlineStr"/>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M649" t="n">
         <v>1</v>
       </c>
@@ -23750,7 +25164,11 @@
       </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
-      <c r="L650" t="inlineStr"/>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M650" t="n">
         <v>1</v>
       </c>
@@ -23785,7 +25203,11 @@
       </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr"/>
-      <c r="L651" t="inlineStr"/>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M651" t="n">
         <v>1</v>
       </c>
@@ -23820,7 +25242,11 @@
       </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr"/>
-      <c r="L652" t="inlineStr"/>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M652" t="n">
         <v>1</v>
       </c>
@@ -23855,7 +25281,11 @@
       </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
-      <c r="L653" t="inlineStr"/>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M653" t="n">
         <v>1</v>
       </c>
@@ -23890,7 +25320,11 @@
       </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr"/>
-      <c r="L654" t="inlineStr"/>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M654" t="n">
         <v>1</v>
       </c>
@@ -23925,7 +25359,11 @@
       </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr"/>
-      <c r="L655" t="inlineStr"/>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M655" t="n">
         <v>1</v>
       </c>
@@ -23960,7 +25398,11 @@
       </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
-      <c r="L656" t="inlineStr"/>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M656" t="n">
         <v>1</v>
       </c>
@@ -23995,7 +25437,11 @@
       </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr"/>
-      <c r="L657" t="inlineStr"/>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M657" t="n">
         <v>1</v>
       </c>
@@ -24030,7 +25476,11 @@
       </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr"/>
-      <c r="L658" t="inlineStr"/>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M658" t="n">
         <v>1</v>
       </c>
@@ -24065,7 +25515,11 @@
       </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr"/>
-      <c r="L659" t="inlineStr"/>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M659" t="n">
         <v>1</v>
       </c>
@@ -24100,7 +25554,11 @@
       </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr"/>
-      <c r="L660" t="inlineStr"/>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M660" t="n">
         <v>1</v>
       </c>
@@ -24135,7 +25593,11 @@
       </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
-      <c r="L661" t="inlineStr"/>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M661" t="n">
         <v>1</v>
       </c>
@@ -24170,7 +25632,11 @@
       </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr"/>
-      <c r="L662" t="inlineStr"/>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M662" t="n">
         <v>1</v>
       </c>
@@ -24205,7 +25671,11 @@
       </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr"/>
-      <c r="L663" t="inlineStr"/>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M663" t="n">
         <v>1</v>
       </c>
@@ -24240,7 +25710,11 @@
       </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr"/>
-      <c r="L664" t="inlineStr"/>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M664" t="n">
         <v>1</v>
       </c>
@@ -24275,7 +25749,11 @@
       </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr"/>
-      <c r="L665" t="inlineStr"/>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M665" t="n">
         <v>1</v>
       </c>
@@ -24310,7 +25788,11 @@
       </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr"/>
-      <c r="L666" t="inlineStr"/>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M666" t="n">
         <v>1</v>
       </c>
@@ -24345,7 +25827,11 @@
       </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr"/>
-      <c r="L667" t="inlineStr"/>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M667" t="n">
         <v>1</v>
       </c>
@@ -24380,7 +25866,11 @@
       </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr"/>
-      <c r="L668" t="inlineStr"/>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M668" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-12 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-12 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-538509.6079542389</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>-414906.8883542389</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-414906.8883542389</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.29</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-414906.8883542389</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11.29</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-414906.8883542389</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11.29</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-415043.6248542389</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.29</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-451043.6248542389</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.1</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-451043.6248542389</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-451043.6248542389</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>-589513.2052542389</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>-582991.2052542389</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10.79</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>-582826.3588084778</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10.99</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>-582780.3588084778</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.09</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +956,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +993,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1026,17 @@
         <v>-546123.6534084778</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1065,17 @@
         <v>-546123.6534084778</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1104,17 @@
         <v>-527570.7778084778</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.19</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1143,17 @@
         <v>-412071.0852084777</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1186,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1223,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1260,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1297,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1334,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1371,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1408,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1441,17 @@
         <v>-437850.5425084778</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.81</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1480,17 @@
         <v>-437850.5425084778</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>11</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1523,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1560,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1597,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1634,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1671,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1708,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1741,17 @@
         <v>-336526.6036084777</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10.79</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1780,17 @@
         <v>-339812.8869084778</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1819,17 @@
         <v>-339767.8869084778</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1858,17 @@
         <v>-408277.0136084778</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1897,17 @@
         <v>-408232.0136084778</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1936,17 @@
         <v>-386164.1237084778</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.17</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1975,17 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +2014,17 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2053,17 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2092,17 @@
         <v>-345664.1237084778</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2135,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2172,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2209,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2246,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2283,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2320,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2357,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2394,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2431,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2468,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2505,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2542,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2579,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2616,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2653,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2686,17 @@
         <v>-494077.8095084778</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>10.81</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2729,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2766,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2803,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2840,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2877,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2914,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2951,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2988,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +3025,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3062,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +3095,17 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>10.86</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +3134,17 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10.83</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +3173,17 @@
         <v>-612260.5028084778</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>10.83</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +3212,17 @@
         <v>-614732.2544084778</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>11.04</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +3251,17 @@
         <v>-645506.7165084778</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11.02</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3290,17 @@
         <v>-724116.9028084779</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10.96</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3329,17 @@
         <v>-724224.9028084779</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>10.84</v>
+      </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3368,17 @@
         <v>-724126.0982084778</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>10.83</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3407,17 @@
         <v>-735591.2763084779</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>11.05</v>
+      </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3446,17 @@
         <v>-735342.9112084778</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10.9</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3485,17 @@
         <v>-827330.7905084778</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>10.91</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3524,17 @@
         <v>-952091.6055084779</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>10.85</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3563,17 @@
         <v>-1357819.960308478</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>10.82</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,7 +3602,7 @@
         <v>-1428045.908008478</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>10.71</v>
@@ -3198,7 +3610,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3229,7 +3641,7 @@
         <v>-1428045.908008478</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>10.7</v>
@@ -3268,7 +3680,7 @@
         <v>-1417479.034508478</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>10.7</v>
@@ -3307,7 +3719,7 @@
         <v>-1439013.695408478</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>10.79</v>
@@ -3346,7 +3758,7 @@
         <v>-1295119.503408478</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>10.74</v>
@@ -3385,7 +3797,7 @@
         <v>-1295119.503408478</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>10.83</v>
@@ -3424,7 +3836,7 @@
         <v>-1327033.401108478</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>10.83</v>
@@ -3463,7 +3875,7 @@
         <v>-1326983.401108478</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>10.75</v>
@@ -3502,7 +3914,7 @@
         <v>-1338339.988708478</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>10.87</v>
@@ -3541,7 +3953,7 @@
         <v>-1338339.988708478</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>10.84</v>
@@ -3580,7 +3992,7 @@
         <v>-1377010.282908478</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>10.84</v>
@@ -3619,7 +4031,7 @@
         <v>-1327909.213408478</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>10.74</v>
@@ -3658,7 +4070,7 @@
         <v>-1324959.213408478</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>10.81</v>
@@ -3697,7 +4109,7 @@
         <v>-1324959.213408478</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>10.87</v>
@@ -3736,7 +4148,7 @@
         <v>-1324913.213408478</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>10.87</v>
@@ -3775,7 +4187,7 @@
         <v>-1323199.213408478</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>11</v>
@@ -3814,7 +4226,7 @@
         <v>-1323199.213408478</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>11.1</v>
@@ -3853,7 +4265,7 @@
         <v>-1286333.901108477</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>11.1</v>
@@ -3892,7 +4304,7 @@
         <v>-1286333.901108477</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>11.2</v>
@@ -3931,7 +4343,7 @@
         <v>-1286333.901108477</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>11.2</v>
@@ -3970,9 +4382,11 @@
         <v>-1286288.901108477</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4007,9 +4421,11 @@
         <v>-1056288.901108477</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11.26</v>
+      </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
@@ -4044,9 +4460,11 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>11.37</v>
+      </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
@@ -4081,9 +4499,11 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
@@ -5302,7 +5722,7 @@
         <v>4742006.120175523</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5339,7 +5759,7 @@
         <v>4272955.043475523</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5450,7 +5870,7 @@
         <v>6970372.010375522</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5524,16 +5944,18 @@
         <v>6873172.491375522</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
       <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
@@ -5559,11 +5981,15 @@
         <v>6904710.892375521</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5592,11 +6018,15 @@
         <v>6571506.836808054</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5625,11 +6055,15 @@
         <v>3802657.016408054</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5658,11 +6092,15 @@
         <v>4612449.556175495</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5691,11 +6129,15 @@
         <v>4232126.130075496</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5724,11 +6166,15 @@
         <v>4410560.380475496</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5757,11 +6203,15 @@
         <v>5017934.799475496</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5790,11 +6240,15 @@
         <v>5519562.827075495</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5823,11 +6277,15 @@
         <v>5215052.950875496</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5856,11 +6314,15 @@
         <v>5680024.623575496</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5889,11 +6351,15 @@
         <v>5420227.826875496</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5922,14 +6388,16 @@
         <v>5078981.541853494</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -5955,7 +6423,7 @@
         <v>5283774.249153494</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5988,7 +6456,7 @@
         <v>5138947.993653494</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6021,7 +6489,7 @@
         <v>4952377.754904881</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6054,7 +6522,7 @@
         <v>4422413.001906451</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6120,7 +6588,7 @@
         <v>5062022.779859713</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6153,7 +6621,7 @@
         <v>5013893.155459713</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6186,7 +6654,7 @@
         <v>5454841.294959713</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6252,7 +6720,7 @@
         <v>5247331.217098881</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6285,7 +6753,7 @@
         <v>5696074.511898882</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6318,7 +6786,7 @@
         <v>5441567.700898882</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6351,7 +6819,7 @@
         <v>5450022.547398882</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6384,7 +6852,7 @@
         <v>5222905.327698882</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6417,7 +6885,7 @@
         <v>4197499.495098881</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6681,7 +7149,7 @@
         <v>3525384.734722631</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6714,7 +7182,7 @@
         <v>3504376.61912263</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6747,7 +7215,7 @@
         <v>3513209.029922631</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6780,7 +7248,7 @@
         <v>3338890.734722631</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6813,7 +7281,7 @@
         <v>3242036.156622631</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6846,7 +7314,7 @@
         <v>3274442.156622631</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6879,7 +7347,7 @@
         <v>3136187.318022631</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6912,7 +7380,7 @@
         <v>3170732.340222631</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6945,7 +7413,7 @@
         <v>3192225.703984733</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7077,7 +7545,7 @@
         <v>3330567.409922631</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7110,7 +7578,7 @@
         <v>3289654.448922631</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7143,7 +7611,7 @@
         <v>3251681.971822631</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7176,7 +7644,7 @@
         <v>3180029.681622631</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7209,7 +7677,7 @@
         <v>3388702.297422631</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8562,7 +9030,7 @@
         <v>2081275.266760668</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8595,7 +9063,7 @@
         <v>2148400.180860668</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8628,7 +9096,7 @@
         <v>2148400.180860668</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8661,7 +9129,7 @@
         <v>2148361.180860668</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9321,7 +9789,7 @@
         <v>1878349.001910884</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9354,7 +9822,7 @@
         <v>1878349.001910884</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9387,7 +9855,7 @@
         <v>1818856.814210884</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9420,7 +9888,7 @@
         <v>1395278.720810884</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9453,7 +9921,7 @@
         <v>1311220.809110884</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9486,7 +9954,7 @@
         <v>1330861.809110884</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9519,7 +9987,7 @@
         <v>1412484.112810884</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9552,7 +10020,7 @@
         <v>1427710.412510884</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9684,7 +10152,7 @@
         <v>1543474.363610884</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9783,7 +10251,7 @@
         <v>1489179.807299256</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9816,7 +10284,7 @@
         <v>1502198.101499256</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9849,7 +10317,7 @@
         <v>1497543.759099256</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9882,7 +10350,7 @@
         <v>1464401.214799256</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9915,7 +10383,7 @@
         <v>1379774.674499256</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10311,7 +10779,7 @@
         <v>891853.8465992563</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10344,7 +10812,7 @@
         <v>873439.6532992562</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10377,7 +10845,7 @@
         <v>873439.6532992562</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10410,7 +10878,7 @@
         <v>873088.9048992562</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10443,7 +10911,7 @@
         <v>873164.2295992562</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10476,7 +10944,7 @@
         <v>970553.3116025821</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10509,7 +10977,7 @@
         <v>889045.2566025821</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10542,7 +11010,7 @@
         <v>921428.7023025821</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10575,7 +11043,7 @@
         <v>1023587.856902582</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10608,7 +11076,7 @@
         <v>1073082.493002582</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10641,7 +11109,7 @@
         <v>1508643.998002582</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10674,7 +11142,7 @@
         <v>1382530.43221769</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10707,7 +11175,7 @@
         <v>1382491.43221769</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10740,7 +11208,7 @@
         <v>1393205.59601769</v>
       </c>
       <c r="H305" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10773,7 +11241,7 @@
         <v>1444299.84701769</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10806,7 +11274,7 @@
         <v>1441292.64021769</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10839,7 +11307,7 @@
         <v>1395819.34161769</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10872,7 +11340,7 @@
         <v>1499416.12621769</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10905,7 +11373,7 @@
         <v>1469985.22321769</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10938,7 +11406,7 @@
         <v>1470024.22321769</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10971,7 +11439,7 @@
         <v>1346700.91301769</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11004,7 +11472,7 @@
         <v>1351788.74011769</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11037,7 +11505,7 @@
         <v>1252889.51911769</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11070,7 +11538,7 @@
         <v>1353900.989516547</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11103,7 +11571,7 @@
         <v>1323469.564216547</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11136,7 +11604,7 @@
         <v>1322696.466616547</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11169,7 +11637,7 @@
         <v>1322696.466616547</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11202,7 +11670,7 @@
         <v>1339800.054816547</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11235,7 +11703,7 @@
         <v>1339626.213116547</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11268,7 +11736,7 @@
         <v>1339492.371516547</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11301,7 +11769,7 @@
         <v>1388062.016516547</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11400,7 +11868,7 @@
         <v>1225666.466116547</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11433,7 +11901,7 @@
         <v>1217919.421516547</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11466,7 +11934,7 @@
         <v>1056164.234016547</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11532,7 +12000,7 @@
         <v>755114.3209165474</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12720,7 +13188,7 @@
         <v>35852.50583884217</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12984,7 +13452,7 @@
         <v>-63567.93236115783</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13017,7 +13485,7 @@
         <v>-269747.3066611578</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13050,7 +13518,7 @@
         <v>-269747.3066611578</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13083,7 +13551,7 @@
         <v>-511354.4125611578</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13677,7 +14145,7 @@
         <v>-442425.6080692164</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13710,7 +14178,7 @@
         <v>-421745.2003692164</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13743,7 +14211,7 @@
         <v>-335747.1048692164</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13842,7 +14310,7 @@
         <v>30692.49063078361</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13875,7 +14343,7 @@
         <v>-227255.4889692164</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13908,7 +14376,7 @@
         <v>-259897.9840692164</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13941,7 +14409,7 @@
         <v>-175806.0173692164</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13974,7 +14442,7 @@
         <v>-200854.2656692164</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14007,7 +14475,7 @@
         <v>-265588.3374692164</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14040,7 +14508,7 @@
         <v>-311482.5902692164</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14073,7 +14541,7 @@
         <v>-311482.5902692164</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14106,7 +14574,7 @@
         <v>-315003.5902692164</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14139,7 +14607,7 @@
         <v>-311955.8290692164</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14469,7 +14937,7 @@
         <v>61350.63863078362</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14502,7 +14970,7 @@
         <v>-95045.98276921638</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14535,7 +15003,7 @@
         <v>249043.2114636537</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14568,7 +15036,7 @@
         <v>441339.9266636538</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14601,7 +15069,7 @@
         <v>441339.9266636538</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14634,7 +15102,7 @@
         <v>254263.7338002188</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14667,7 +15135,7 @@
         <v>419324.1117002189</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14700,7 +15168,7 @@
         <v>240347.8507002189</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14733,7 +15201,7 @@
         <v>-176966.6553997811</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14766,7 +15234,7 @@
         <v>-57067.79109978113</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14799,7 +15267,7 @@
         <v>-57067.79109978113</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14964,7 +15432,7 @@
         <v>89403.25043056137</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14997,7 +15465,7 @@
         <v>87019.73773056136</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15030,7 +15498,7 @@
         <v>-13904.14436943864</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15063,7 +15531,7 @@
         <v>72004.40573056135</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15096,7 +15564,7 @@
         <v>72004.40573056135</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15129,7 +15597,7 @@
         <v>72004.40573056135</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15162,7 +15630,7 @@
         <v>-86890.92166943866</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17175,7 +17643,7 @@
         <v>-586548.700181953</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17208,7 +17676,7 @@
         <v>-557211.332181953</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17241,7 +17709,7 @@
         <v>-557999.386581953</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17472,7 +17940,7 @@
         <v>-764954.0808819531</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17538,7 +18006,7 @@
         <v>-849675.4315819531</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18495,7 +18963,7 @@
         <v>-965805.9805064965</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18528,7 +18996,7 @@
         <v>-965805.9805064965</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18561,7 +19029,7 @@
         <v>-906486.7114064965</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18594,7 +19062,7 @@
         <v>-1166273.638006496</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18627,7 +19095,7 @@
         <v>-971377.7155064965</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18660,7 +19128,7 @@
         <v>-990150.8247064964</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20277,7 +20745,7 @@
         <v>-1158962.307637955</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20310,7 +20778,7 @@
         <v>-1163076.945937955</v>
       </c>
       <c r="H595" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20343,7 +20811,7 @@
         <v>-1038233.517537955</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20376,7 +20844,7 @@
         <v>-1204951.385337955</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20409,7 +20877,7 @@
         <v>-1210318.338337955</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20442,7 +20910,7 @@
         <v>-1210318.338337955</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20475,7 +20943,7 @@
         <v>-1239637.900637955</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20541,7 +21009,7 @@
         <v>-1239747.217137955</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20574,7 +21042,7 @@
         <v>-1307091.931337955</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20607,7 +21075,7 @@
         <v>-1333581.515337955</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20673,7 +21141,7 @@
         <v>-1360599.200937955</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20838,7 +21306,7 @@
         <v>-1263150.280237955</v>
       </c>
       <c r="H611" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20871,7 +21339,7 @@
         <v>-1263150.280237955</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20937,7 +21405,7 @@
         <v>-1262150.280237955</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20970,7 +21438,7 @@
         <v>-1262150.280237955</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21003,7 +21471,7 @@
         <v>-1264138.582937955</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21036,7 +21504,7 @@
         <v>-1296546.582937955</v>
       </c>
       <c r="H617" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21069,7 +21537,7 @@
         <v>-1296546.582937955</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21102,7 +21570,7 @@
         <v>-1274636.514789786</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21135,7 +21603,7 @@
         <v>-1343766.188889786</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21234,7 +21702,7 @@
         <v>-1345284.763289785</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22257,7 +22725,7 @@
         <v>-764117.2528662885</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22290,7 +22758,7 @@
         <v>-878969.7103662885</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22323,7 +22791,7 @@
         <v>-988514.9476662886</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22356,7 +22824,7 @@
         <v>-744744.1474662886</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22389,7 +22857,7 @@
         <v>-792032.7801662886</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22422,7 +22890,7 @@
         <v>-784420.4790662886</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25007,6 +25475,6 @@
       <c r="M737" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-12 BackTest ETZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-538509.6079542389</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,1124 +484,974 @@
         <v>-414906.8883542389</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27253.3042</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-414906.8883542389</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>500</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-414906.8883542389</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86.06270000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-414906.8883542389</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>136.7365</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-415043.6248542389</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>36000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-451043.6248542389</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-451043.6248542389</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.939354238833181</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-451043.6248542389</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="F11" t="n">
+        <v>138469.5804</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-589513.2052542389</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6522</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-582991.2052542389</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="F13" t="n">
+        <v>164.8464457611668</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-582826.3588084778</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="C14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="F14" t="n">
+        <v>46</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-582780.3588084778</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F15" t="n">
+        <v>645.2375</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-583425.5963084778</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="C16" t="n">
         <v>11.19</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="D16" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="F16" t="n">
+        <v>37301.9429</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-546123.6534084778</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>47577.5862</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-546123.6534084778</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31211.2069</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-546123.6534084778</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18552.8756</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-527570.7778084778</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="D20" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>115499.6926</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-412071.0852084777</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>43</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-412028.0852084777</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>55537.3513</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-412028.0852084777</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>121.8776</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-412028.0852084777</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24480</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-436508.0852084777</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F25" t="n">
+        <v>17336.6858</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-419171.3994084778</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="C26" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="F26" t="n">
+        <v>240.5719392314567</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-419171.3994084778</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.81</v>
+      </c>
+      <c r="F27" t="n">
+        <v>31179.2289</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-450350.6283084778</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="C28" t="n">
+        <v>11</v>
+      </c>
+      <c r="D28" t="n">
+        <v>11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12500.0858</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-437850.5425084778</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3274.4281</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-437850.5425084778</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C30" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2664.1703</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-440514.7128084778</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C31" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53.2834</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-440567.9962084778</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="F32" t="n">
+        <v>187955.0639</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-628523.0601084777</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="E4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27253.3042</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-414906.8883542389</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F5" t="n">
-        <v>500</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-414906.8883542389</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F6" t="n">
-        <v>86.06270000000001</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-414906.8883542389</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>136.7365</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-415043.6248542389</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>36000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-451043.6248542389</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D9" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E9" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-451043.6248542389</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.939354238833181</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-451043.6248542389</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="F11" t="n">
-        <v>138469.5804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-589513.2052542389</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C12" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D12" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6522</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-582991.2052542389</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="D13" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="F13" t="n">
-        <v>164.8464457611668</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-582826.3588084778</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>46</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-582780.3588084778</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D15" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F15" t="n">
-        <v>645.2375</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-583425.5963084778</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="C16" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D16" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="F16" t="n">
-        <v>37301.9429</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-546123.6534084778</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>47577.5862</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-546123.6534084778</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="E18" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31211.2069</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-546123.6534084778</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18552.8756</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-527570.7778084778</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>115499.6926</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-412071.0852084777</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>43</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-412028.0852084777</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>55537.3513</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-412028.0852084777</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>121.8776</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-412028.0852084777</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>24480</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-436508.0852084777</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C25" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="F25" t="n">
-        <v>17336.6858</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-419171.3994084778</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="C26" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="D26" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="F26" t="n">
-        <v>240.5719392314567</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-419171.3994084778</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C27" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="D27" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="F27" t="n">
-        <v>31179.2289</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-450350.6283084778</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="C28" t="n">
-        <v>11</v>
-      </c>
-      <c r="D28" t="n">
-        <v>11</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F28" t="n">
-        <v>12500.0858</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-437850.5425084778</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>11</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11</v>
-      </c>
-      <c r="D29" t="n">
-        <v>11</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3274.4281</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-437850.5425084778</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C30" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D30" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2664.1703</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-440514.7128084778</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="C31" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="D31" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>53.2834</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-440567.9962084778</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="D32" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="E32" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="F32" t="n">
-        <v>187955.0639</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-628523.0601084777</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1630,9 +1480,11 @@
         <v>-628474.0601084777</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10.78</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1704,9 +1556,11 @@
         <v>-628562.0019084777</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.79</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1780,11 +1634,9 @@
         <v>-339812.8869084778</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1819,11 +1671,9 @@
         <v>-339767.8869084778</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1858,11 +1708,9 @@
         <v>-408277.0136084778</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1897,11 +1745,9 @@
         <v>-408232.0136084778</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1936,11 +1782,9 @@
         <v>-386164.1237084778</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1975,11 +1819,9 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2014,11 +1856,9 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2053,11 +1893,9 @@
         <v>-346164.1237084778</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2092,11 +1930,9 @@
         <v>-345664.1237084778</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2686,11 +2522,9 @@
         <v>-494077.8095084778</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>10.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -3134,11 +2968,9 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -3212,11 +3044,9 @@
         <v>-614732.2544084778</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>11.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3290,11 +3120,9 @@
         <v>-724116.9028084779</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>10.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -4538,9 +4366,11 @@
         <v>-1046551.162108477</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>11.35</v>
+      </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4575,9 +4405,11 @@
         <v>-1022834.177021521</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>11.37</v>
+      </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4612,9 +4444,11 @@
         <v>-1053552.744328787</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11.5</v>
+      </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4686,9 +4520,11 @@
         <v>-961998.9420287873</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.56</v>
+      </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -5500,18 +5336,16 @@
         <v>4184182.836475524</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
@@ -5537,15 +5371,11 @@
         <v>3820120.688975524</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5574,15 +5404,11 @@
         <v>4270149.114675524</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5611,15 +5437,11 @@
         <v>4830143.393375523</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5652,11 +5474,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5689,11 +5507,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5726,11 +5540,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5763,11 +5573,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5800,11 +5606,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +5639,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5874,11 +5672,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5911,11 +5705,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5948,11 +5738,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5985,11 +5771,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6022,11 +5804,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6059,11 +5837,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6096,11 +5870,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6133,11 +5903,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6170,11 +5936,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6207,11 +5969,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6244,11 +6002,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6035,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6318,11 +6068,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6355,11 +6101,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6388,16 +6130,14 @@
         <v>5078981.541853494</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
       <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
@@ -6456,7 +6196,7 @@
         <v>5138947.993653494</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6522,7 +6262,7 @@
         <v>4422413.001906451</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6588,7 +6328,7 @@
         <v>5062022.779859713</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6621,7 +6361,7 @@
         <v>5013893.155459713</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6654,7 +6394,7 @@
         <v>5454841.294959713</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6720,7 +6460,7 @@
         <v>5247331.217098881</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6786,7 +6526,7 @@
         <v>5441567.700898882</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6918,7 +6658,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6951,7 +6691,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6984,7 +6724,7 @@
         <v>3679638.832498882</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7083,7 +6823,7 @@
         <v>3800617.992022631</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7215,7 +6955,7 @@
         <v>3513209.029922631</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7248,7 +6988,7 @@
         <v>3338890.734722631</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7281,7 +7021,7 @@
         <v>3242036.156622631</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7314,7 +7054,7 @@
         <v>3274442.156622631</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7347,7 +7087,7 @@
         <v>3136187.318022631</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7380,7 +7120,7 @@
         <v>3170732.340222631</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7413,7 +7153,7 @@
         <v>3192225.703984733</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7545,7 +7285,7 @@
         <v>3330567.409922631</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7578,7 +7318,7 @@
         <v>3289654.448922631</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7644,7 +7384,7 @@
         <v>3180029.681622631</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -25475,6 +25215,6 @@
       <c r="M737" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest ETZ.xlsx
+++ b/BackTest/2020-01-12 BackTest ETZ.xlsx
@@ -1441,171 +1441,163 @@
         <v>-628523.0601084777</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="F33" t="n">
+        <v>49</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-628474.0601084777</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="D34" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="F34" t="n">
+        <v>87.9418</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-628562.0019084777</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J34" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="C35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2110.6042</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-628562.0019084777</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="C36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="F36" t="n">
+        <v>292035.3983</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-336526.6036084777</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="J36" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="C33" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="E33" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="F33" t="n">
-        <v>49</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-628474.0601084777</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D34" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="E34" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="F34" t="n">
-        <v>87.9418</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-628562.0019084777</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="C35" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="D35" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2110.6042</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-628562.0019084777</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="C36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="F36" t="n">
-        <v>292035.3983</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-336526.6036084777</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>10.79</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1637,7 +1629,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1674,7 +1668,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1711,7 +1707,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1748,7 +1746,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1785,7 +1785,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1822,7 +1824,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1859,7 +1863,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1896,7 +1902,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1933,7 +1941,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1970,7 +1980,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2007,7 +2019,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,7 +2058,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,7 +2097,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2118,7 +2136,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2155,7 +2175,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,7 +2214,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2229,7 +2253,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2266,7 +2292,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2303,7 +2331,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,7 +2370,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2377,7 +2409,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,7 +2448,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2451,7 +2487,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,7 +2526,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2525,7 +2565,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2562,7 +2604,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2599,7 +2643,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2636,7 +2682,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,7 +2721,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,7 +2760,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,7 +2799,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2784,7 +2838,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,7 +2877,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2858,7 +2916,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2895,7 +2955,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,12 +2991,12 @@
         <v>-614260.5028084778</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2971,7 +3033,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3010,7 +3074,9 @@
       <c r="I74" t="n">
         <v>10.83</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3044,10 +3110,14 @@
         <v>-614732.2544084778</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="J75" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,7 +3156,9 @@
       <c r="I76" t="n">
         <v>11.02</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,10 +3192,14 @@
         <v>-724116.9028084779</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="J77" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,7 +3238,9 @@
       <c r="I78" t="n">
         <v>10.84</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3201,7 +3279,9 @@
       <c r="I79" t="n">
         <v>10.83</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,7 +3320,9 @@
       <c r="I80" t="n">
         <v>11.05</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3279,7 +3361,9 @@
       <c r="I81" t="n">
         <v>10.9</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3318,7 +3402,9 @@
       <c r="I82" t="n">
         <v>10.91</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3357,7 +3443,9 @@
       <c r="I83" t="n">
         <v>10.85</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,7 +3484,9 @@
       <c r="I84" t="n">
         <v>10.82</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3435,7 +3525,9 @@
       <c r="I85" t="n">
         <v>10.71</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,7 +3566,9 @@
       <c r="I86" t="n">
         <v>10.7</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3513,7 +3607,9 @@
       <c r="I87" t="n">
         <v>10.7</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,7 +3648,9 @@
       <c r="I88" t="n">
         <v>10.79</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,7 +3689,9 @@
       <c r="I89" t="n">
         <v>10.74</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,7 +3730,9 @@
       <c r="I90" t="n">
         <v>10.83</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,7 +3771,9 @@
       <c r="I91" t="n">
         <v>10.83</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,7 +3812,9 @@
       <c r="I92" t="n">
         <v>10.75</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3853,9 @@
       <c r="I93" t="n">
         <v>10.87</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3894,9 @@
       <c r="I94" t="n">
         <v>10.84</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,7 +3935,9 @@
       <c r="I95" t="n">
         <v>10.84</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,7 +3976,9 @@
       <c r="I96" t="n">
         <v>10.74</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,7 +4017,9 @@
       <c r="I97" t="n">
         <v>10.81</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,7 +4058,9 @@
       <c r="I98" t="n">
         <v>10.87</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,7 +4099,9 @@
       <c r="I99" t="n">
         <v>10.87</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +4140,9 @@
       <c r="I100" t="n">
         <v>11</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,7 +4181,9 @@
       <c r="I101" t="n">
         <v>11.1</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4222,9 @@
       <c r="I102" t="n">
         <v>11.1</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,7 +4263,9 @@
       <c r="I103" t="n">
         <v>11.2</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +4304,9 @@
       <c r="I104" t="n">
         <v>11.2</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +4345,9 @@
       <c r="I105" t="n">
         <v>11.2</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4386,9 @@
       <c r="I106" t="n">
         <v>11.26</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4288,12 +4422,12 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4327,12 +4461,12 @@
         <v>-1076950.901108477</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4366,12 +4500,12 @@
         <v>-1046551.162108477</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,12 +4539,12 @@
         <v>-1022834.177021521</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,12 +4578,12 @@
         <v>-1053552.744328787</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4486,7 +4620,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4520,12 +4656,12 @@
         <v>-961998.9420287873</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,7 +4698,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,7 +4737,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,7 +4776,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,7 +4815,9 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +4854,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4747,7 +4893,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +4932,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4821,7 +4971,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4858,7 +5010,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,7 +5049,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,7 +5088,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4969,7 +5127,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5006,7 +5166,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5043,7 +5205,9 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5080,7 +5244,9 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5117,7 +5283,9 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5322,9 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5191,7 +5361,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5228,7 +5400,9 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5265,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5302,7 +5478,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>10.99</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5336,380 +5514,452 @@
         <v>4184182.836475524</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="C136" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="D136" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="E136" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="F136" t="n">
+        <v>364062.1475</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3820120.688975524</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="C137" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="E137" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="F137" t="n">
+        <v>450028.4257</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4270149.114675524</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="D138" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="F138" t="n">
+        <v>559994.2787</v>
+      </c>
+      <c r="G138" t="n">
+        <v>4830143.393375523</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="C139" t="n">
+        <v>15.09</v>
+      </c>
+      <c r="D139" t="n">
+        <v>15.79</v>
+      </c>
+      <c r="E139" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="F139" t="n">
+        <v>518914.4024</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4311228.990975523</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="C140" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="D140" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="E140" t="n">
+        <v>15</v>
+      </c>
+      <c r="F140" t="n">
+        <v>685543.067</v>
+      </c>
+      <c r="G140" t="n">
+        <v>4996772.057975523</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="C141" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E141" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>254765.9378</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4742006.120175523</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D142" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="E142" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>469051.0767</v>
+      </c>
+      <c r="G142" t="n">
+        <v>4272955.043475523</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>626230.5983</v>
+      </c>
+      <c r="G143" t="n">
+        <v>4899185.641775522</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15.31</v>
+      </c>
+      <c r="F144" t="n">
+        <v>683150.2162</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5582335.857975522</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16.94</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1388036.1524</v>
+      </c>
+      <c r="G145" t="n">
+        <v>6970372.010375522</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="F146" t="n">
+        <v>220996.1023</v>
+      </c>
+      <c r="G146" t="n">
+        <v>6749375.908075522</v>
+      </c>
+      <c r="H146" t="n">
         <v>2</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>14.97</v>
-      </c>
-      <c r="C136" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="D136" t="n">
-        <v>14.98</v>
-      </c>
-      <c r="E136" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="F136" t="n">
-        <v>364062.1475</v>
-      </c>
-      <c r="G136" t="n">
-        <v>3820120.688975524</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>14.49</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="E137" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="F137" t="n">
-        <v>450028.4257</v>
-      </c>
-      <c r="G137" t="n">
-        <v>4270149.114675524</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="E138" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="F138" t="n">
-        <v>559994.2787</v>
-      </c>
-      <c r="G138" t="n">
-        <v>4830143.393375523</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.78</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15.09</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="E139" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="F139" t="n">
-        <v>518914.4024</v>
-      </c>
-      <c r="G139" t="n">
-        <v>4311228.990975523</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15</v>
-      </c>
-      <c r="F140" t="n">
-        <v>685543.067</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4996772.057975523</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F141" t="n">
-        <v>254765.9378</v>
-      </c>
-      <c r="G141" t="n">
-        <v>4742006.120175523</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="F142" t="n">
-        <v>469051.0767</v>
-      </c>
-      <c r="G142" t="n">
-        <v>4272955.043475523</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>626230.5983</v>
-      </c>
-      <c r="G143" t="n">
-        <v>4899185.641775522</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="C144" t="n">
-        <v>16</v>
-      </c>
-      <c r="D144" t="n">
-        <v>16</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15.31</v>
-      </c>
-      <c r="F144" t="n">
-        <v>683150.2162</v>
-      </c>
-      <c r="G144" t="n">
-        <v>5582335.857975522</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>16</v>
-      </c>
-      <c r="C145" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D145" t="n">
-        <v>16.94</v>
-      </c>
-      <c r="E145" t="n">
-        <v>16</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1388036.1524</v>
-      </c>
-      <c r="G145" t="n">
-        <v>6970372.010375522</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="C146" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="D146" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="E146" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="F146" t="n">
-        <v>220996.1023</v>
-      </c>
-      <c r="G146" t="n">
-        <v>6749375.908075522</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>1.456328480436761</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.048237476808906</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5734,7 +5984,7 @@
         <v>6873172.491375522</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5767,7 +6017,7 @@
         <v>6904710.892375521</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5800,7 +6050,7 @@
         <v>6571506.836808054</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5833,7 +6083,7 @@
         <v>3802657.016408054</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5866,7 +6116,7 @@
         <v>4612449.556175495</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6493,7 +6743,7 @@
         <v>5696074.511898882</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6559,7 +6809,7 @@
         <v>5450022.547398882</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6592,7 +6842,7 @@
         <v>5222905.327698882</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6625,7 +6875,7 @@
         <v>4197499.495098881</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6658,7 +6908,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6691,7 +6941,7 @@
         <v>3646514.962998881</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6724,7 +6974,7 @@
         <v>3679638.832498882</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6823,7 +7073,7 @@
         <v>3800617.992022631</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
